--- a/biology/Botanique/Croton_gratissimus/Croton_gratissimus.xlsx
+++ b/biology/Botanique/Croton_gratissimus/Croton_gratissimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Croton gratissimus est une espèce de plantes à fleurs du genre Croton et de la famille des Euphorbiaceae. C'est un arbuste présent en Afrique tropicale et subtropicale.
 Ses graines entrent dans la composition de la poudre de chébé pour cheveux des femmes au Tchad.
@@ -512,9 +524,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (12 oct. 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (12 oct. 2011) :
 Croton gratissimus var. gratissimus
 Croton gratissimus var. subgratissimus (Prain) Burtt Davy</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Oxydectes gratissima (Burch.) Kuntze
 Croton amabilis Müll.Arg. (pour la première variété)
